--- a/Code/Results/Cases/Case_3_223/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_223/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.216237977421372</v>
+        <v>0.7193536307022441</v>
       </c>
       <c r="C2">
-        <v>0.5760323337466104</v>
+        <v>0.1900541378288949</v>
       </c>
       <c r="D2">
-        <v>0.05639392037225832</v>
+        <v>0.01839289231952534</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.350314110010018</v>
+        <v>0.3904829946890942</v>
       </c>
       <c r="G2">
-        <v>0.000776088525507746</v>
+        <v>0.002372792662579092</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1013173735799011</v>
+        <v>0.262931302456419</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7936667697291</v>
+        <v>0.8448740361739766</v>
       </c>
       <c r="O2">
-        <v>0.867295556306857</v>
+        <v>1.209995590113039</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.932845088106603</v>
+        <v>0.6297058750278666</v>
       </c>
       <c r="C3">
-        <v>0.5065906085845882</v>
+        <v>0.1676240295245748</v>
       </c>
       <c r="D3">
-        <v>0.04944871030972564</v>
+        <v>0.01613704970889529</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3183777383805406</v>
+        <v>0.386585627643889</v>
       </c>
       <c r="G3">
-        <v>0.0007795038712043124</v>
+        <v>0.002375102843149508</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1047392512881018</v>
+        <v>0.2674990674277549</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7715321631363423</v>
+        <v>0.8395351397227842</v>
       </c>
       <c r="O3">
-        <v>0.8054804174246328</v>
+        <v>1.209249759535481</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.758673803697206</v>
+        <v>0.5745020706209516</v>
       </c>
       <c r="C4">
-        <v>0.46388320676175</v>
+        <v>0.1537789512613017</v>
       </c>
       <c r="D4">
-        <v>0.04517594830294058</v>
+        <v>0.01474554807747808</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2995727895406688</v>
+        <v>0.3845332939323782</v>
       </c>
       <c r="G4">
-        <v>0.0007816722063005565</v>
+        <v>0.002376597830151557</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1073407188007902</v>
+        <v>0.2705357709640523</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7586957172212294</v>
+        <v>0.8365931547189689</v>
       </c>
       <c r="O4">
-        <v>0.7700458000373374</v>
+        <v>1.209874358393577</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.687641528422773</v>
+        <v>0.5519675264974637</v>
       </c>
       <c r="C5">
-        <v>0.4464584652266694</v>
+        <v>0.1481190086781226</v>
       </c>
       <c r="D5">
-        <v>0.04343239038846747</v>
+        <v>0.01417692723481423</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2920984783208311</v>
+        <v>0.383782481684193</v>
       </c>
       <c r="G5">
-        <v>0.0007825740301651352</v>
+        <v>0.00237722634860628</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1085205826665572</v>
+        <v>0.2718314826330115</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7536475650633321</v>
+        <v>0.8354791436990041</v>
       </c>
       <c r="O5">
-        <v>0.7562002215467345</v>
+        <v>1.210400557845276</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.675842893564351</v>
+        <v>0.5482234021986017</v>
       </c>
       <c r="C6">
-        <v>0.443563725123596</v>
+        <v>0.1471781056609984</v>
       </c>
       <c r="D6">
-        <v>0.04314272315253476</v>
+        <v>0.01408241431169444</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2908684022365122</v>
+        <v>0.3836629718092013</v>
       </c>
       <c r="G6">
-        <v>0.0007827248851641542</v>
+        <v>0.002377331880862537</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1087235571214187</v>
+        <v>0.2720501477939354</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.752820170330267</v>
+        <v>0.8352992995037027</v>
       </c>
       <c r="O6">
-        <v>0.7539359504230561</v>
+        <v>1.210504325120752</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.757716082532511</v>
+        <v>0.5741983158034429</v>
       </c>
       <c r="C7">
-        <v>0.4636483006643459</v>
+        <v>0.1537026915267177</v>
       </c>
       <c r="D7">
-        <v>0.0451524440183988</v>
+        <v>0.01473788577484214</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2994712408922027</v>
+        <v>0.3845228220829924</v>
       </c>
       <c r="G7">
-        <v>0.0007816842943913125</v>
+        <v>0.002376606228410459</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1073561538803602</v>
+        <v>0.2705530097816204</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.758626904717687</v>
+        <v>0.8365777866644777</v>
       </c>
       <c r="O7">
-        <v>0.7698567181457179</v>
+        <v>1.209880355643492</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.118549889995847</v>
+        <v>0.6884771769010172</v>
       </c>
       <c r="C8">
-        <v>0.5521010986576016</v>
+        <v>0.1823355828501576</v>
       </c>
       <c r="D8">
-        <v>0.0540007823473232</v>
+        <v>0.01761642931087692</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3391273327322324</v>
+        <v>0.3890683953646601</v>
       </c>
       <c r="G8">
-        <v>0.0007772515117709078</v>
+        <v>0.002373573363362596</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1023896317110466</v>
+        <v>0.2644580240362941</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7858739474782936</v>
+        <v>0.8429636292562321</v>
       </c>
       <c r="O8">
-        <v>0.8454343717363315</v>
+        <v>1.209513415372641</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.825537476143097</v>
+        <v>0.9112498146081975</v>
       </c>
       <c r="C9">
-        <v>0.7251836167412478</v>
+        <v>0.2378924128958317</v>
       </c>
       <c r="D9">
-        <v>0.07129960155196358</v>
+        <v>0.02320900784459923</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4239077965345786</v>
+        <v>0.4006923993217981</v>
       </c>
       <c r="G9">
-        <v>0.0007691111546279171</v>
+        <v>0.002368230583590258</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.09690767525641775</v>
+        <v>0.2543528256984935</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8456218261248267</v>
+        <v>0.8581394008761691</v>
       </c>
       <c r="O9">
-        <v>1.0155092044875</v>
+        <v>1.21740997196946</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.345713403716559</v>
+        <v>1.074045439065003</v>
       </c>
       <c r="C10">
-        <v>0.8524046840549317</v>
+        <v>0.2783342793482575</v>
       </c>
       <c r="D10">
-        <v>0.08399842490581477</v>
+        <v>0.02728450423169448</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4914058849703622</v>
+        <v>0.4108962254752626</v>
       </c>
       <c r="G10">
-        <v>0.0007634473914599946</v>
+        <v>0.002364670285959984</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.09589296347701293</v>
+        <v>0.2480621413209931</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8938624338972403</v>
+        <v>0.8708903624068967</v>
       </c>
       <c r="O10">
-        <v>1.156542624007329</v>
+        <v>1.228504113608011</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.582791130144244</v>
+        <v>1.147902262880621</v>
       </c>
       <c r="C11">
-        <v>0.9103631492473312</v>
+        <v>0.2966478488964697</v>
       </c>
       <c r="D11">
-        <v>0.08977834205997226</v>
+        <v>0.02913100488108711</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5234638813123809</v>
+        <v>0.4159020043155266</v>
       </c>
       <c r="G11">
-        <v>0.0007609350065319712</v>
+        <v>0.002363129120458771</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0961834708284961</v>
+        <v>0.2454481151621124</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9168685318666689</v>
+        <v>0.877035636054444</v>
       </c>
       <c r="O11">
-        <v>1.224842606743323</v>
+        <v>1.234709061950497</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.672654142685474</v>
+        <v>1.175839758147958</v>
       </c>
       <c r="C12">
-        <v>0.9323288226401303</v>
+        <v>0.3035703652176096</v>
       </c>
       <c r="D12">
-        <v>0.09196793873758935</v>
+        <v>0.02982911932497956</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5358174322775469</v>
+        <v>0.4178500736324509</v>
       </c>
       <c r="G12">
-        <v>0.0007599924478824136</v>
+        <v>0.002362556742201472</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.09641034297488815</v>
+        <v>0.244493997936214</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9257432615665948</v>
+        <v>0.8794119721224547</v>
       </c>
       <c r="O12">
-        <v>1.251359479563035</v>
+        <v>1.237225892906537</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.653296295191126</v>
+        <v>1.169824302329857</v>
       </c>
       <c r="C13">
-        <v>0.9275972200771889</v>
+        <v>0.3020800370059078</v>
       </c>
       <c r="D13">
-        <v>0.09149632441995692</v>
+        <v>0.02967881816118734</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.533147039767357</v>
+        <v>0.4174281852672266</v>
       </c>
       <c r="G13">
-        <v>0.0007601950586281183</v>
+        <v>0.002362679515345047</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.09635613995521553</v>
+        <v>0.2446978914717732</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9238245185394902</v>
+        <v>0.8788980001892384</v>
       </c>
       <c r="O13">
-        <v>1.245618593327208</v>
+        <v>1.236676404578731</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.590182338622526</v>
+        <v>1.150201318390089</v>
       </c>
       <c r="C14">
-        <v>0.9121698811635781</v>
+        <v>0.2972176200306933</v>
       </c>
       <c r="D14">
-        <v>0.08995846163250576</v>
+        <v>0.02918846176920198</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.524475813470346</v>
+        <v>0.4160612203556582</v>
       </c>
       <c r="G14">
-        <v>0.0007608572870521635</v>
+        <v>0.002363081805743104</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.09619974179379298</v>
+        <v>0.2453689018813812</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9175953371977528</v>
+        <v>0.8772301533792302</v>
       </c>
       <c r="O14">
-        <v>1.227010733584734</v>
+        <v>1.234912769712281</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.551535224640816</v>
+        <v>1.138177652391676</v>
       </c>
       <c r="C15">
-        <v>0.9027227247638336</v>
+        <v>0.2942376177350638</v>
       </c>
       <c r="D15">
-        <v>0.08901660203876105</v>
+        <v>0.02888795782956066</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5191928868933928</v>
+        <v>0.4152307548487144</v>
       </c>
       <c r="G15">
-        <v>0.0007612640586810588</v>
+        <v>0.002363329680937809</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.09611943021979386</v>
+        <v>0.2457845762195134</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9138013021739084</v>
+        <v>0.8762149537913615</v>
       </c>
       <c r="O15">
-        <v>1.215699708982555</v>
+        <v>1.233854278486319</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.330230698247533</v>
+        <v>1.069214552372614</v>
       </c>
       <c r="C16">
-        <v>0.8486191596907133</v>
+        <v>0.2771357266051382</v>
       </c>
       <c r="D16">
-        <v>0.08362079191540062</v>
+        <v>0.02716367729719593</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4893396671121124</v>
+        <v>0.4105764233163356</v>
       </c>
       <c r="G16">
-        <v>0.0007636128385910305</v>
+        <v>0.002364772578738683</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.09588984496496522</v>
+        <v>0.2482379698281569</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8923811442937364</v>
+        <v>0.8704956644467217</v>
       </c>
       <c r="O16">
-        <v>1.152167249777733</v>
+        <v>1.228121963081236</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.194597515916996</v>
+        <v>1.026855516245973</v>
       </c>
       <c r="C17">
-        <v>0.8154541355187064</v>
+        <v>0.2666225580576622</v>
       </c>
       <c r="D17">
-        <v>0.08031173061529984</v>
+        <v>0.02610394560927887</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4713855456824447</v>
+        <v>0.4078144770082375</v>
       </c>
       <c r="G17">
-        <v>0.0007650698845445162</v>
+        <v>0.002365677801805767</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.09594766583855474</v>
+        <v>0.249806578651409</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8795194395406014</v>
+        <v>0.8670751421911547</v>
       </c>
       <c r="O17">
-        <v>1.114292962528822</v>
+        <v>1.224902442492521</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.116625524377014</v>
+        <v>1.002473025245479</v>
       </c>
       <c r="C18">
-        <v>0.7963861088052226</v>
+        <v>0.2605678134714537</v>
       </c>
       <c r="D18">
-        <v>0.07840871684435058</v>
+        <v>0.02549371602437844</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.461184909182272</v>
+        <v>0.4062601320420143</v>
       </c>
       <c r="G18">
-        <v>0.000765913995793048</v>
+        <v>0.002366205847610272</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.09605116230126498</v>
+        <v>0.2507321010039405</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8722209628263755</v>
+        <v>0.8651402214437667</v>
       </c>
       <c r="O18">
-        <v>1.092894999673803</v>
+        <v>1.223159635577872</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.090231868360888</v>
+        <v>0.9942143757958206</v>
       </c>
       <c r="C19">
-        <v>0.7899311411491681</v>
+        <v>0.2585164455115034</v>
       </c>
       <c r="D19">
-        <v>0.07776442349122448</v>
+        <v>0.02528698383820682</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.457752236986039</v>
+        <v>0.4057397361402835</v>
       </c>
       <c r="G19">
-        <v>0.0007662008491412062</v>
+        <v>0.002366385905014952</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.09609801130325124</v>
+        <v>0.2510494642621417</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8697665669499486</v>
+        <v>0.864490677876816</v>
       </c>
       <c r="O19">
-        <v>1.085714681304097</v>
+        <v>1.222588249236253</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.209031537449277</v>
+        <v>1.031366655457475</v>
       </c>
       <c r="C20">
-        <v>0.8189837798067003</v>
+        <v>0.2677425180015973</v>
       </c>
       <c r="D20">
-        <v>0.08066395492033962</v>
+        <v>0.02621682860331731</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4732836055159808</v>
+        <v>0.4081049447367775</v>
       </c>
       <c r="G20">
-        <v>0.0007649141554076792</v>
+        <v>0.002365580675365575</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.09593417978742735</v>
+        <v>0.2496371850244827</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8808782474836647</v>
+        <v>0.8674359041569204</v>
       </c>
       <c r="O20">
-        <v>1.118284358170939</v>
+        <v>1.225233882904348</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.608717892550999</v>
+        <v>1.15596590570442</v>
       </c>
       <c r="C21">
-        <v>0.9167007252966073</v>
+        <v>0.2986461704933561</v>
       </c>
       <c r="D21">
-        <v>0.09041014221972432</v>
+        <v>0.02933252193187741</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5270167975551345</v>
+        <v>0.416461305385063</v>
       </c>
       <c r="G21">
-        <v>0.0007606625381677675</v>
+        <v>0.002362963339106333</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.09624243597168913</v>
+        <v>0.2451708382295976</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9194204951725311</v>
+        <v>0.877718706250846</v>
       </c>
       <c r="O21">
-        <v>1.232458110663657</v>
+        <v>1.235426250751459</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.870453895239677</v>
+        <v>1.237220237256736</v>
       </c>
       <c r="C22">
-        <v>0.9806727555705947</v>
+        <v>0.3187708243492864</v>
       </c>
       <c r="D22">
-        <v>0.09678510990313782</v>
+        <v>0.03136228741462332</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5633911299503183</v>
+        <v>0.4222286852526764</v>
       </c>
       <c r="G22">
-        <v>0.0007579351133164629</v>
+        <v>0.002361318178786648</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.09712950738779114</v>
+        <v>0.2424603139876353</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9455643389850792</v>
+        <v>0.8847260553541076</v>
       </c>
       <c r="O22">
-        <v>1.310913728552634</v>
+        <v>1.243062118870597</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.730705151353561</v>
+        <v>1.193870183305307</v>
       </c>
       <c r="C23">
-        <v>0.9465176980839942</v>
+        <v>0.3080367016900141</v>
       </c>
       <c r="D23">
-        <v>0.09338204262964922</v>
+        <v>0.03027957388298574</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5438557567740787</v>
+        <v>0.4191224780841125</v>
       </c>
       <c r="G23">
-        <v>0.0007593862364488335</v>
+        <v>0.002362190262442783</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.09659030586514561</v>
+        <v>0.2438878461632257</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9315200136349375</v>
+        <v>0.8809599527064904</v>
       </c>
       <c r="O23">
-        <v>1.268669492556086</v>
+        <v>1.238897339760541</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.202505901388292</v>
+        <v>1.029327261850199</v>
       </c>
       <c r="C24">
-        <v>0.8173880312130564</v>
+        <v>0.2672362170505096</v>
       </c>
       <c r="D24">
-        <v>0.08050471618177824</v>
+        <v>0.02616579723769519</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4724251158958737</v>
+        <v>0.4079735198302998</v>
       </c>
       <c r="G24">
-        <v>0.0007649845404753612</v>
+        <v>0.002365624562674138</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.0959400586566943</v>
+        <v>0.2497136940450275</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8802636325060718</v>
+        <v>0.8672727052681637</v>
       </c>
       <c r="O24">
-        <v>1.116478679876792</v>
+        <v>1.225083701898114</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.634232681408434</v>
+        <v>0.8511329009566566</v>
       </c>
       <c r="C25">
-        <v>0.6783721092320718</v>
+        <v>0.2229277408067105</v>
       </c>
       <c r="D25">
-        <v>0.0666233228131432</v>
+        <v>0.02170181727331055</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4001283488662821</v>
+        <v>0.3972564633422238</v>
       </c>
       <c r="G25">
-        <v>0.0007712561854564599</v>
+        <v>0.002369611584981067</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.09789321215472313</v>
+        <v>0.2568880231475497</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8287331666361695</v>
+        <v>0.8537515999508685</v>
       </c>
       <c r="O25">
-        <v>0.9668844453114218</v>
+        <v>1.214347185201547</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_223/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_223/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7193536307022441</v>
+        <v>2.216237977421542</v>
       </c>
       <c r="C2">
-        <v>0.1900541378288949</v>
+        <v>0.5760323337466104</v>
       </c>
       <c r="D2">
-        <v>0.01839289231952534</v>
+        <v>0.05639392037225122</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3904829946890942</v>
+        <v>0.3503141100099967</v>
       </c>
       <c r="G2">
-        <v>0.002372792662579092</v>
+        <v>0.0007760885255256844</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.262931302456419</v>
+        <v>0.1013173735799029</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8448740361739766</v>
+        <v>0.7936667697291</v>
       </c>
       <c r="O2">
-        <v>1.209995590113039</v>
+        <v>0.867295556306857</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6297058750278666</v>
+        <v>1.932845088106632</v>
       </c>
       <c r="C3">
-        <v>0.1676240295245748</v>
+        <v>0.5065906085842755</v>
       </c>
       <c r="D3">
-        <v>0.01613704970889529</v>
+        <v>0.04944871030983222</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.386585627643889</v>
+        <v>0.3183777383805406</v>
       </c>
       <c r="G3">
-        <v>0.002375102843149508</v>
+        <v>0.0007795038712617399</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2674990674277549</v>
+        <v>0.1047392512880982</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8395351397227842</v>
+        <v>0.7715321631363423</v>
       </c>
       <c r="O3">
-        <v>1.209249759535481</v>
+        <v>0.8054804174246328</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5745020706209516</v>
+        <v>1.75867380369732</v>
       </c>
       <c r="C4">
-        <v>0.1537789512613017</v>
+        <v>0.4638832067614942</v>
       </c>
       <c r="D4">
-        <v>0.01474554807747808</v>
+        <v>0.0451759483027061</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3845332939323782</v>
+        <v>0.2995727895406688</v>
       </c>
       <c r="G4">
-        <v>0.002376597830151557</v>
+        <v>0.000781672206242717</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2705357709640523</v>
+        <v>0.1073407188007849</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8365931547189689</v>
+        <v>0.7586957172212294</v>
       </c>
       <c r="O4">
-        <v>1.209874358393577</v>
+        <v>0.7700458000372805</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5519675264974637</v>
+        <v>1.687641528422688</v>
       </c>
       <c r="C5">
-        <v>0.1481190086781226</v>
+        <v>0.446458465226641</v>
       </c>
       <c r="D5">
-        <v>0.01417692723481423</v>
+        <v>0.04343239038857405</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.383782481684193</v>
+        <v>0.2920984783208169</v>
       </c>
       <c r="G5">
-        <v>0.00237722634860628</v>
+        <v>0.000782574030181139</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2718314826330115</v>
+        <v>0.108520582666559</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8354791436990041</v>
+        <v>0.7536475650633463</v>
       </c>
       <c r="O5">
-        <v>1.210400557845276</v>
+        <v>0.7562002215466777</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5482234021986017</v>
+        <v>1.675842893564464</v>
       </c>
       <c r="C6">
-        <v>0.1471781056609984</v>
+        <v>0.4435637251236528</v>
       </c>
       <c r="D6">
-        <v>0.01408241431169444</v>
+        <v>0.04314272315253476</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3836629718092013</v>
+        <v>0.2908684022365122</v>
       </c>
       <c r="G6">
-        <v>0.002377331880862537</v>
+        <v>0.0007827248851058093</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2720501477939354</v>
+        <v>0.1087235571214062</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8352992995037027</v>
+        <v>0.7528201703302244</v>
       </c>
       <c r="O6">
-        <v>1.210504325120752</v>
+        <v>0.7539359504229992</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5741983158034429</v>
+        <v>1.757716082532511</v>
       </c>
       <c r="C7">
-        <v>0.1537026915267177</v>
+        <v>0.4636483006642891</v>
       </c>
       <c r="D7">
-        <v>0.01473788577484214</v>
+        <v>0.04515244401829221</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3845228220829924</v>
+        <v>0.2994712408922098</v>
       </c>
       <c r="G7">
-        <v>0.002376606228410459</v>
+        <v>0.0007816842944813693</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2705530097816204</v>
+        <v>0.1073561538803602</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8365777866644777</v>
+        <v>0.758626904717687</v>
       </c>
       <c r="O7">
-        <v>1.209880355643492</v>
+        <v>0.7698567181457179</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6884771769010172</v>
+        <v>2.118549889996018</v>
       </c>
       <c r="C8">
-        <v>0.1823355828501576</v>
+        <v>0.5521010986577437</v>
       </c>
       <c r="D8">
-        <v>0.01761642931087692</v>
+        <v>0.05400078234720951</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3890683953646601</v>
+        <v>0.3391273327322466</v>
       </c>
       <c r="G8">
-        <v>0.002373573363362596</v>
+        <v>0.0007772515117525926</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2644580240362941</v>
+        <v>0.1023896317110591</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8429636292562321</v>
+        <v>0.7858739474782936</v>
       </c>
       <c r="O8">
-        <v>1.209513415372641</v>
+        <v>0.8454343717363884</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9112498146081975</v>
+        <v>2.82553747614304</v>
       </c>
       <c r="C9">
-        <v>0.2378924128958317</v>
+        <v>0.7251836167410204</v>
       </c>
       <c r="D9">
-        <v>0.02320900784459923</v>
+        <v>0.0712996015519991</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4006923993217981</v>
+        <v>0.4239077965345786</v>
       </c>
       <c r="G9">
-        <v>0.002368230583590258</v>
+        <v>0.0007691111546271399</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2543528256984935</v>
+        <v>0.09690767525640709</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8581394008761691</v>
+        <v>0.8456218261248836</v>
       </c>
       <c r="O9">
-        <v>1.21740997196946</v>
+        <v>1.015509204487472</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.074045439065003</v>
+        <v>3.345713403716729</v>
       </c>
       <c r="C10">
-        <v>0.2783342793482575</v>
+        <v>0.8524046840551307</v>
       </c>
       <c r="D10">
-        <v>0.02728450423169448</v>
+        <v>0.08399842490570109</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4108962254752626</v>
+        <v>0.4914058849703622</v>
       </c>
       <c r="G10">
-        <v>0.002364670285959984</v>
+        <v>0.0007634473914598667</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2480621413209931</v>
+        <v>0.09589296347699516</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8708903624068967</v>
+        <v>0.8938624338972971</v>
       </c>
       <c r="O10">
-        <v>1.228504113608011</v>
+        <v>1.156542624007329</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.147902262880621</v>
+        <v>3.582791130144301</v>
       </c>
       <c r="C11">
-        <v>0.2966478488964697</v>
+        <v>0.9103631492471607</v>
       </c>
       <c r="D11">
-        <v>0.02913100488108711</v>
+        <v>0.08977834205998647</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4159020043155266</v>
+        <v>0.5234638813123809</v>
       </c>
       <c r="G11">
-        <v>0.002363129120458771</v>
+        <v>0.0007609350065620027</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2454481151621124</v>
+        <v>0.09618347082849965</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.877035636054444</v>
+        <v>0.9168685318666263</v>
       </c>
       <c r="O11">
-        <v>1.234709061950497</v>
+        <v>1.224842606743323</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.175839758147958</v>
+        <v>3.672654142685474</v>
       </c>
       <c r="C12">
-        <v>0.3035703652176096</v>
+        <v>0.9323288226402155</v>
       </c>
       <c r="D12">
-        <v>0.02982911932497956</v>
+        <v>0.09196793873754672</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4178500736324509</v>
+        <v>0.5358174322775682</v>
       </c>
       <c r="G12">
-        <v>0.002362556742201472</v>
+        <v>0.0007599924478820733</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.244493997936214</v>
+        <v>0.09641034297488815</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8794119721224547</v>
+        <v>0.9257432615665948</v>
       </c>
       <c r="O12">
-        <v>1.237225892906537</v>
+        <v>1.251359479563035</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.169824302329857</v>
+        <v>3.653296295191353</v>
       </c>
       <c r="C13">
-        <v>0.3020800370059078</v>
+        <v>0.9275972200774163</v>
       </c>
       <c r="D13">
-        <v>0.02967881816118734</v>
+        <v>0.09149632441995692</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4174281852672266</v>
+        <v>0.5331470397673499</v>
       </c>
       <c r="G13">
-        <v>0.002362679515345047</v>
+        <v>0.0007601950585994777</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2446978914717732</v>
+        <v>0.09635613995521908</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8788980001892384</v>
+        <v>0.9238245185395471</v>
       </c>
       <c r="O13">
-        <v>1.236676404578731</v>
+        <v>1.245618593327265</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.150201318390089</v>
+        <v>3.590182338622526</v>
       </c>
       <c r="C14">
-        <v>0.2972176200306933</v>
+        <v>0.9121698811635497</v>
       </c>
       <c r="D14">
-        <v>0.02918846176920198</v>
+        <v>0.08995846163251286</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4160612203556582</v>
+        <v>0.524475813470346</v>
       </c>
       <c r="G14">
-        <v>0.002363081805743104</v>
+        <v>0.0007608572870232932</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2453689018813812</v>
+        <v>0.09619974179379298</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8772301533792302</v>
+        <v>0.9175953371977528</v>
       </c>
       <c r="O14">
-        <v>1.234912769712281</v>
+        <v>1.227010733584791</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.138177652391676</v>
+        <v>3.551535224640759</v>
       </c>
       <c r="C15">
-        <v>0.2942376177350638</v>
+        <v>0.9027227247641179</v>
       </c>
       <c r="D15">
-        <v>0.02888795782956066</v>
+        <v>0.08901660203879658</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4152307548487144</v>
+        <v>0.5191928868933999</v>
       </c>
       <c r="G15">
-        <v>0.002363329680937809</v>
+        <v>0.0007612640586858836</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2457845762195134</v>
+        <v>0.09611943021981162</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8762149537913615</v>
+        <v>0.9138013021738942</v>
       </c>
       <c r="O15">
-        <v>1.233854278486319</v>
+        <v>1.215699708982527</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.069214552372614</v>
+        <v>3.330230698247533</v>
       </c>
       <c r="C16">
-        <v>0.2771357266051382</v>
+        <v>0.8486191596907133</v>
       </c>
       <c r="D16">
-        <v>0.02716367729719593</v>
+        <v>0.08362079191515193</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4105764233163356</v>
+        <v>0.4893396671121124</v>
       </c>
       <c r="G16">
-        <v>0.002364772578738683</v>
+        <v>0.0007636128386263115</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2482379698281569</v>
+        <v>0.09588984496496522</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8704956644467217</v>
+        <v>0.8923811442937932</v>
       </c>
       <c r="O16">
-        <v>1.228121963081236</v>
+        <v>1.15216724977779</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.026855516245973</v>
+        <v>3.194597515917053</v>
       </c>
       <c r="C17">
-        <v>0.2666225580576622</v>
+        <v>0.8154541355189053</v>
       </c>
       <c r="D17">
-        <v>0.02610394560927887</v>
+        <v>0.08031173061522168</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4078144770082375</v>
+        <v>0.4713855456824447</v>
       </c>
       <c r="G17">
-        <v>0.002365677801805767</v>
+        <v>0.0007650698844304473</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.249806578651409</v>
+        <v>0.09594766583856895</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8670751421911547</v>
+        <v>0.8795194395406014</v>
       </c>
       <c r="O17">
-        <v>1.224902442492521</v>
+        <v>1.114292962528793</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.002473025245479</v>
+        <v>3.116625524376843</v>
       </c>
       <c r="C18">
-        <v>0.2605678134714537</v>
+        <v>0.7963861088051658</v>
       </c>
       <c r="D18">
-        <v>0.02549371602437844</v>
+        <v>0.07840871684433637</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4062601320420143</v>
+        <v>0.4611849091822933</v>
       </c>
       <c r="G18">
-        <v>0.002366205847610272</v>
+        <v>0.00076591399573478</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2507321010039405</v>
+        <v>0.09605116230127919</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8651402214437667</v>
+        <v>0.8722209628263613</v>
       </c>
       <c r="O18">
-        <v>1.223159635577872</v>
+        <v>1.092894999673803</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9942143757958206</v>
+        <v>3.090231868360831</v>
       </c>
       <c r="C19">
-        <v>0.2585164455115034</v>
+        <v>0.7899311411493954</v>
       </c>
       <c r="D19">
-        <v>0.02528698383820682</v>
+        <v>0.07776442349115342</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4057397361402835</v>
+        <v>0.4577522369860603</v>
       </c>
       <c r="G19">
-        <v>0.002366385905014952</v>
+        <v>0.0007662008491406025</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2510494642621417</v>
+        <v>0.09609801130324769</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.864490677876816</v>
+        <v>0.8697665669500054</v>
       </c>
       <c r="O19">
-        <v>1.222588249236253</v>
+        <v>1.08571468130404</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.031366655457475</v>
+        <v>3.209031537449334</v>
       </c>
       <c r="C20">
-        <v>0.2677425180015973</v>
+        <v>0.8189837798068993</v>
       </c>
       <c r="D20">
-        <v>0.02621682860331731</v>
+        <v>0.08066395492022593</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4081049447367775</v>
+        <v>0.4732836055160021</v>
       </c>
       <c r="G20">
-        <v>0.002365580675365575</v>
+        <v>0.0007649141553865134</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2496371850244827</v>
+        <v>0.09593417978742735</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8674359041569204</v>
+        <v>0.8808782474837216</v>
       </c>
       <c r="O20">
-        <v>1.225233882904348</v>
+        <v>1.118284358170939</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.15596590570442</v>
+        <v>3.608717892550942</v>
       </c>
       <c r="C21">
-        <v>0.2986461704933561</v>
+        <v>0.9167007252966357</v>
       </c>
       <c r="D21">
-        <v>0.02933252193187741</v>
+        <v>0.09041014221974564</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.416461305385063</v>
+        <v>0.5270167975551274</v>
       </c>
       <c r="G21">
-        <v>0.002362963339106333</v>
+        <v>0.0007606625381676446</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2451708382295976</v>
+        <v>0.09624243597168913</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.877718706250846</v>
+        <v>0.9194204951724885</v>
       </c>
       <c r="O21">
-        <v>1.235426250751459</v>
+        <v>1.232458110663657</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.237220237256736</v>
+        <v>3.870453895239734</v>
       </c>
       <c r="C22">
-        <v>0.3187708243492864</v>
+        <v>0.98067275557068</v>
       </c>
       <c r="D22">
-        <v>0.03136228741462332</v>
+        <v>0.09678510990290334</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4222286852526764</v>
+        <v>0.5633911299502969</v>
       </c>
       <c r="G22">
-        <v>0.002361318178786648</v>
+        <v>0.0007579351132875168</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2424603139876353</v>
+        <v>0.09712950738779114</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8847260553541076</v>
+        <v>0.945564338985136</v>
       </c>
       <c r="O22">
-        <v>1.243062118870597</v>
+        <v>1.310913728552748</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.193870183305307</v>
+        <v>3.730705151353675</v>
       </c>
       <c r="C23">
-        <v>0.3080367016900141</v>
+        <v>0.9465176980838237</v>
       </c>
       <c r="D23">
-        <v>0.03027957388298574</v>
+        <v>0.09338204262959948</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4191224780841125</v>
+        <v>0.5438557567740858</v>
       </c>
       <c r="G23">
-        <v>0.002362190262442783</v>
+        <v>0.0007593862364479399</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2438878461632257</v>
+        <v>0.09659030586514561</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8809599527064904</v>
+        <v>0.9315200136348807</v>
       </c>
       <c r="O23">
-        <v>1.238897339760541</v>
+        <v>1.268669492556143</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.029327261850199</v>
+        <v>3.20250590138852</v>
       </c>
       <c r="C24">
-        <v>0.2672362170505096</v>
+        <v>0.8173880312135111</v>
       </c>
       <c r="D24">
-        <v>0.02616579723769519</v>
+        <v>0.08050471618190613</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4079735198302998</v>
+        <v>0.4724251158958737</v>
       </c>
       <c r="G24">
-        <v>0.002365624562674138</v>
+        <v>0.0007649845404750354</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2497136940450275</v>
+        <v>0.09594005865668009</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8672727052681637</v>
+        <v>0.8802636325060718</v>
       </c>
       <c r="O24">
-        <v>1.225083701898114</v>
+        <v>1.116478679876735</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8511329009566566</v>
+        <v>2.634232681408605</v>
       </c>
       <c r="C25">
-        <v>0.2229277408067105</v>
+        <v>0.6783721092322423</v>
       </c>
       <c r="D25">
-        <v>0.02170181727331055</v>
+        <v>0.06662332281304373</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3972564633422238</v>
+        <v>0.4001283488662679</v>
       </c>
       <c r="G25">
-        <v>0.002369611584981067</v>
+        <v>0.0007712561854181717</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2568880231475497</v>
+        <v>0.09789321215472313</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8537515999508685</v>
+        <v>0.8287331666362121</v>
       </c>
       <c r="O25">
-        <v>1.214347185201547</v>
+        <v>0.9668844453113934</v>
       </c>
     </row>
   </sheetData>
